--- a/data/trans_dic/Q17F_D_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Q17F_D_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,0; 25,91</t>
+          <t>5,9; 25,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 19,86</t>
+          <t>3,19; 20,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 20,57</t>
+          <t>3,82; 20,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 53,43</t>
+          <t>0,0; 53,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 16,48</t>
+          <t>2,79; 15,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,6; 22,62</t>
+          <t>9,28; 23,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,55; 21,44</t>
+          <t>8,13; 21,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,36; 44,34</t>
+          <t>11,61; 43,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,09; 16,48</t>
+          <t>5,91; 16,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,8; 18,95</t>
+          <t>7,82; 19,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,83; 18,14</t>
+          <t>7,47; 18,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,95; 36,61</t>
+          <t>10,83; 37,42</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,49; 31,29</t>
+          <t>11,26; 31,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 18,59</t>
+          <t>6,21; 18,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,35; 15,02</t>
+          <t>3,52; 16,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,63; 32,14</t>
+          <t>9,59; 32,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,16; 23,2</t>
+          <t>10,24; 23,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,45; 19,36</t>
+          <t>8,47; 19,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,04; 21,43</t>
+          <t>10,03; 21,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,94; 35,48</t>
+          <t>15,13; 36,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,25; 22,94</t>
+          <t>12,14; 23,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,79; 17,67</t>
+          <t>8,75; 16,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,27; 16,73</t>
+          <t>8,8; 17,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,22; 30,35</t>
+          <t>14,52; 29,82</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,19; 22,27</t>
+          <t>7,8; 22,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,37; 20,06</t>
+          <t>7,09; 18,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,23; 19,9</t>
+          <t>7,82; 20,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,96; 45,28</t>
+          <t>22,1; 46,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,12; 24,58</t>
+          <t>12,69; 25,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,03; 19,5</t>
+          <t>8,82; 19,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,5; 23,19</t>
+          <t>11,63; 23,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,71; 51,01</t>
+          <t>35,0; 50,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,09; 21,83</t>
+          <t>12,23; 21,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,52; 17,05</t>
+          <t>9,48; 17,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,18; 19,81</t>
+          <t>11,06; 19,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>32,74; 45,91</t>
+          <t>32,75; 45,93</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,91; 27,88</t>
+          <t>10,63; 28,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,53; 26,23</t>
+          <t>9,82; 25,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 16,81</t>
+          <t>6,51; 17,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>25,35; 42,74</t>
+          <t>25,98; 42,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,35; 26,94</t>
+          <t>13,2; 26,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,37; 19,75</t>
+          <t>9,5; 20,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 21,53</t>
+          <t>10,85; 22,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>42,15; 56,47</t>
+          <t>41,6; 56,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,26; 25,28</t>
+          <t>13,99; 25,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,05; 19,37</t>
+          <t>10,92; 19,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,14; 17,68</t>
+          <t>9,75; 17,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,81; 48,96</t>
+          <t>36,57; 48,91</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,13; 27,17</t>
+          <t>12,01; 26,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,83; 23,89</t>
+          <t>11,12; 24,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,39; 22,6</t>
+          <t>9,69; 23,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>35,76; 52,8</t>
+          <t>35,32; 52,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,3; 27,24</t>
+          <t>14,3; 27,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,6; 20,85</t>
+          <t>9,31; 21,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,77; 25,27</t>
+          <t>12,85; 25,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,38; 47,12</t>
+          <t>34,01; 46,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,7; 24,58</t>
+          <t>14,27; 24,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,68; 20,39</t>
+          <t>11,31; 19,7</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12,84; 22,17</t>
+          <t>13,02; 22,49</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>37,08; 47,52</t>
+          <t>37,15; 47,56</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,18; 21,21</t>
+          <t>11,09; 20,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,54; 22,34</t>
+          <t>11,8; 22,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,19; 20,77</t>
+          <t>11,53; 21,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>27,93; 39,54</t>
+          <t>28,14; 39,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,2; 13,01</t>
+          <t>6,48; 13,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,39; 17,28</t>
+          <t>9,15; 16,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,42; 20,75</t>
+          <t>12,65; 21,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>31,93; 41,01</t>
+          <t>31,52; 40,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,26; 15,29</t>
+          <t>9,56; 15,48</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,42; 17,61</t>
+          <t>11,37; 17,47</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13,25; 19,69</t>
+          <t>13,18; 20,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>31,13; 38,46</t>
+          <t>31,52; 38,5</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,68; 19,94</t>
+          <t>13,79; 19,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,05; 17,61</t>
+          <t>11,92; 17,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,77; 15,73</t>
+          <t>10,62; 15,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29,04; 36,85</t>
+          <t>29,77; 37,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,37; 17,02</t>
+          <t>12,47; 17,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,65; 15,68</t>
+          <t>11,82; 15,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,19; 18,8</t>
+          <t>14,01; 18,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>34,67; 41,07</t>
+          <t>34,5; 40,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,76; 17,49</t>
+          <t>13,7; 17,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>12,44; 15,9</t>
+          <t>12,58; 15,8</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,27; 16,59</t>
+          <t>13,27; 16,62</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>33,38; 38,49</t>
+          <t>33,33; 38,42</t>
         </is>
       </c>
     </row>
